--- a/iOS app (excel formula).xlsx
+++ b/iOS app (excel formula).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Will\Business\WTC Tax Consulting\App\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="4"/>
+    <workbookView xWindow="2820" yWindow="240" windowWidth="24000" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RRSP (ded'n)" sheetId="1" r:id="rId1"/>
@@ -19,8 +14,11 @@
     <sheet name="Interest Inc" sheetId="3" r:id="rId5"/>
     <sheet name="Dividend Income" sheetId="17" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -793,7 +791,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -913,7 +911,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,12 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -991,9 +983,15 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1056,7 +1054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,7 +1089,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1268,7 +1266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1276,43 +1274,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1320,12 +1318,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1341,18 +1339,18 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1366,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1382,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1398,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1414,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15">
       <c r="B23" s="5">
         <v>200000</v>
       </c>
@@ -1426,24 +1424,24 @@
       <c r="F23" s="4"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="F24" s="4"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1456,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1475,7 +1473,7 @@
       <c r="F29" s="4"/>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1490,7 @@
       <c r="F30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1506,7 @@
       <c r="F31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15">
       <c r="B32" s="5">
         <v>220000</v>
       </c>
@@ -1518,22 +1516,22 @@
       <c r="F32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>17</v>
@@ -1542,12 +1540,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="G40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="B42" s="12">
         <f>IF(AND(B12&gt;=B28,B12&lt;=C28),B4*D28,IF(AND(B12&gt;B29,B12&lt;=C29),IF((B12-B29)&gt;B4,B4*D29,((B12-B29)*D29)+((B4-(B12-B29))*D28)),IF(AND(B12&gt;B30,B12&lt;=C30),IF((B12-B30)&gt;B4,B4*D30,IF((B12-B29)&gt;B4,(((B12-B30)*D30)+((B4-(B12-B30))*D29)),(((B12-B30)*D30))+((B30-B29)*D29)+((B4-(B12-B29))*D28))),IF(AND(B12&gt;B31,B12&lt;=C31),IF((B12-B31)&gt;B4,B4*D31,IF((B12-B30)&gt;B4,((B12-B31)*D31)+((B4-(B12-B31))*D30),IF((B12-B29)&gt;B4,((B12-B31)*D31)+((B31-B30)*D30)+((B4-(B12-B30))*D29),((B12-B31)*D31)+((B31-B30)*D30)+((B30-B29)*D29)+((B4-(B12-B29))*D28)))),IF(B12&gt;B32,IF((B12-B32)&gt;B4,B4*D32,IF((B12-B31)&gt;B4,((B12-B32)*D32)+((B4-(B12-B32))*D31),IF((B12-B30)&gt;B4,((B12-B32)*D32)+((B32-B31)*D31)+((B4-(B12-B31))*D30),IF((B12-B29)&gt;B4,((B12-B32)*D32)+((B32-B31)*D31)+((B31-B30)*D30)+((B4-(B12-B30))*D29),((B12-B32)*D32)+((B32-B31)*D31)+((B31-B30)*D30)+((B30-B29)*D29)+((B4-(B12-B29))*D28))))))))))</f>
         <v>1216</v>
@@ -1580,7 +1578,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="B43" s="12">
         <f>IF(AND(B12&gt;E43,B12&lt;=C29),IF((B12-E43)&gt;B4,B4*D29*D43,(B12-E43)*D29*D43),IF(AND(B12&gt;B30,B12&lt;=C30),IF((B12-B30)&gt;B4,B4*D30*D43,IF((B12-E43)&gt;B4,((B12-B30)*D30*D43)+((B4-(B12-B30))*D29*D43),((B12-B30)*D30*D43)+((B30-E43))*D29*D43)),IF(AND(B12&gt;B31,B12&lt;=C31),IF((B12-B31)&gt;B4,B4*D31*D43,IF((B12-B30)&gt;B4,((B12-B31)*D31*D43)+((B4-(B12-B31))*D30*D43),IF((B12-E43)&gt;B4,((B12-B31)*D31*D43)+((B31-B30)*D30*D43)+((B4-(B12-B30))*D29*D43),((B12-B31)*D31*D43)+((B31-B30)*D30*D43)+((B30-E43))*D29*D43))),IF((B12&gt;B32),IF((B12-B32)&gt;B4,B4*D32*D43,IF((B12-B31)&gt;B4,((B12-B32)*D32*D43)+((B4-(B12-B32))*D31*D43),IF((B12-B30)&gt;B4,((B12-B32)*D32*D43)+((B32-B31)*D31*D43)+((B4-(B12-B31))*D30*D43),IF((B12-E43)&gt;B4,((B12-B32)*D32*D43)+((B32-B31)*D31*D43)+((B31-B30)*D30*D43)+((B4-(B12-B30))*D29*D43),((B12-B32)*D32*D43)+((B32-B31)*D31*D43)+((B31-B30)*D30*D43)+((B30-E43))*D29*D43))))))))</f>
         <v>243.20000000000002</v>
@@ -1598,7 +1596,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44" s="12">
         <f>IF(AND(B12&gt;E44,B12&lt;=C30),IF((B12-E44)&gt;B4,B4*D30*D44,(B12-E44)*D30*D44),IF(AND(B12&gt;B31,B12&lt;=C31),IF((B12-B31)&gt;B4,B4*D31*D44,IF((B12-E44)&gt;B4,((B12-B31)*D31*D44)+((B4-(B12-B31))*D30*D44),((B12-B31)*D31*D44)+((B31-E44)*D30*D44))),IF((B12&gt;B32),IF((B12-B32)&gt;B4,B4*D32*D44,IF((B12-B31)&gt;B4,((B12-B32)*D32*D44)+(B4-(B12-B32)*D31*D44),IF((B12-E44)&gt;B4,((B12-B32)*D32*D44)+((B32-B31)*D31*D44)+((B4-(B12-B31))*D30*D44),((B12-B32)*D32*D44)+((B32-B31)*D31*D44)+((B31-E44)*D30*D44)))))))</f>
         <v>437.76</v>
@@ -1616,7 +1614,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1626,92 +1624,92 @@
       </c>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="G46" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="G47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="G48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7">
       <c r="G49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7">
       <c r="G50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7">
       <c r="G51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7">
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7">
       <c r="B53" s="13"/>
       <c r="G53" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7">
       <c r="B54" s="15"/>
       <c r="G54" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7">
       <c r="G55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7">
       <c r="G56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7">
       <c r="G57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7">
       <c r="G59" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7">
       <c r="G60" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7">
       <c r="G61" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7">
       <c r="G62" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -1723,35 +1721,40 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="C1" s="1"/>
       <c r="D1" t="s">
         <v>0</v>
@@ -1760,7 +1763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
@@ -1778,11 +1781,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="34" t="s">
         <v>135</v>
       </c>
@@ -1795,11 +1798,11 @@
         <v>You are not eligible to claim a deduction for child care expense.</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="34"/>
       <c r="B6" s="34"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="C7" s="34" t="s">
         <v>136</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="34" t="s">
         <v>137</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="C10" s="25"/>
       <c r="E10" s="25"/>
       <c r="G10" s="25"/>
@@ -1914,11 +1917,11 @@
       <c r="S10" s="25"/>
       <c r="U10" s="25"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="34"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="19" t="s">
         <v>154</v>
       </c>
@@ -1935,7 +1938,7 @@
       <c r="S13" s="25"/>
       <c r="U13" s="25"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -1952,7 +1955,7 @@
       <c r="S14" s="25"/>
       <c r="U14" s="25"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="C15" s="27"/>
       <c r="E15" s="12"/>
       <c r="G15" s="12"/>
@@ -1964,7 +1967,7 @@
       <c r="S15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="19" t="s">
         <v>155</v>
       </c>
@@ -1979,7 +1982,7 @@
       <c r="S16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -1996,12 +1999,12 @@
       <c r="S17" s="25"/>
       <c r="U17" s="25"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>157</v>
       </c>
@@ -2060,12 +2063,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -2078,37 +2081,37 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="B23" s="27"/>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="22">
         <v>20000</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="22">
         <v>10000</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="25" t="s">
         <v>156</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -2134,15 +2137,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A29" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
@@ -2151,11 +2154,11 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="10" t="s">
         <v>202</v>
       </c>
@@ -2165,23 +2168,23 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A33" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="45" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="D34" s="36" t="str">
@@ -2189,51 +2192,51 @@
         <v>You may not be eligible to claim a deduction on child care expense.</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="34"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:5" ht="46.5" customHeight="1">
+      <c r="A36" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="45" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="D37" s="47"/>
-    </row>
-    <row r="38" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A38" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="45" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C40" s="18">
@@ -2241,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="34" t="s">
         <v>200</v>
       </c>
@@ -2251,17 +2254,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="34" t="s">
         <v>201</v>
       </c>
       <c r="B42" s="34"/>
-      <c r="C42" s="51">
+      <c r="C42" s="49">
         <f>C40*C38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="18">
@@ -2269,12 +2272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="18"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="34" t="s">
         <v>205</v>
       </c>
@@ -2284,12 +2287,12 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="10" t="s">
         <v>203</v>
       </c>
@@ -2299,15 +2302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="47">
         <f>C31+C47</f>
         <v>6000</v>
       </c>
@@ -2315,13 +2318,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2337,20 +2340,20 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="2"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2366,7 +2369,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2385,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2401,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2417,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15">
       <c r="C66" s="5">
         <v>200000</v>
       </c>
@@ -2424,26 +2427,26 @@
       <c r="G66" s="4"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="G67" s="4"/>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2461,7 @@
       </c>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2475,7 +2478,7 @@
       <c r="G72" s="4"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -2492,7 +2495,7 @@
       <c r="G73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2508,7 +2511,7 @@
       <c r="G74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15">
       <c r="C75" s="5">
         <v>220000</v>
       </c>
@@ -2518,24 +2521,24 @@
       <c r="G75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="C82" s="11"/>
       <c r="D82" t="s">
         <v>17</v>
@@ -2544,12 +2547,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="H83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="C85" s="12">
         <f>IF(AND(C56&gt;=C71,C56&lt;=D71),C49*E71,IF(AND(C56&gt;C72,C56&lt;=D72),IF((C56-C72)&gt;C49,C49*E72,((C56-C72)*E72)+((C49-(C56-C72))*E71)),IF(AND(C56&gt;C73,C56&lt;=D73),IF((C56-C73)&gt;C49,C49*E73,IF((C56-C72)&gt;C49,(((C56-C73)*E73)+((C49-(C56-C73))*E72)),(((C56-C73)*E73))+((C73-C72)*E72)+((C49-(C56-C72))*E71))),IF(AND(C56&gt;C74,C56&lt;=D74),IF((C56-C74)&gt;C49,C49*E74,IF((C56-C73)&gt;C49,((C56-C74)*E74)+((C49-(C56-C74))*E73),IF((C56-C72)&gt;C49,((C56-C74)*E74)+((C74-C73)*E73)+((C49-(C56-C73))*E72),((C56-C74)*E74)+((C74-C73)*E73)+((C73-C72)*E72)+((C49-(C56-C72))*E71)))),IF(C56&gt;C75,IF((C56-C75)&gt;C49,C49*E75,IF((C56-C74)&gt;C49,((C56-C75)*E75)+((C49-(C56-C75))*E74),IF((C56-C73)&gt;C49,((C56-C75)*E75)+((C75-C74)*E74)+((C49-(C56-C74))*E73),IF((C56-C72)&gt;C49,((C56-C75)*E75)+((C75-C74)*E74)+((C74-C73)*E73)+((C49-(C56-C73))*E72),((C56-C75)*E75)+((C75-C74)*E74)+((C74-C73)*E73)+((C73-C72)*E72)+((C49-(C56-C72))*E71))))))))))</f>
         <v>729.6</v>
@@ -2582,7 +2585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="C86" s="12">
         <f>IF(AND(C56&gt;F86,C56&lt;=D72),IF((C56-F86)&gt;C49,C49*E72*E86,(C56-F86)*E72*E86),IF(AND(C56&gt;C73,C56&lt;=D73),IF((C56-C73)&gt;C49,C49*E73*E86,IF((C56-F86)&gt;C49,((C56-C73)*E73*E86)+((C49-(C56-C73))*E72*E86),((C56-C73)*E73*E86)+((C73-F86))*E72*E86)),IF(AND(C56&gt;C74,C56&lt;=D74),IF((C56-C74)&gt;C49,C49*E74*E86,IF((C56-C73)&gt;C49,((C56-C74)*E74*E86)+((C49-(C56-C74))*E73*E86),IF((C56-F86)&gt;C49,((C56-C74)*E74*E86)+((C74-C73)*E73*E86)+((C49-(C56-C73))*E72*E86),((C56-C74)*E74*E86)+((C74-C73)*E73*E86)+((C73-F86))*E72*E86))),IF((C56&gt;C75),IF((C56-C75)&gt;C49,C49*E75*E86,IF((C56-C74)&gt;C49,((C56-C75)*E75*E86)+((C49-(C56-C75))*E74*E86),IF((C56-C73)&gt;C49,((C56-C75)*E75*E86)+((C75-C74)*E74*E86)+((C49-(C56-C74))*E73*E86),IF((C56-F86)&gt;C49,((C56-C75)*E75*E86)+((C75-C74)*E74*E86)+((C74-C73)*E73*E86)+((C49-(C56-C73))*E72*E86),((C56-C75)*E75*E86)+((C75-C74)*E74*E86)+((C74-C73)*E73*E86)+((C73-F86))*E72*E86))))))))</f>
         <v>145.92000000000002</v>
@@ -2600,7 +2603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="C87" s="12">
         <f>IF(AND(C56&gt;F87,C56&lt;=D73),IF((C56-F87)&gt;C49,C49*E73*E87,(C56-F87)*E73*E87),IF(AND(C56&gt;C74,C56&lt;=D74),IF((C56-C74)&gt;C49,C49*E74*E87,IF((C56-F87)&gt;C49,((C56-C74)*E74*E87)+((C49-(C56-C74))*E73*E87),((C56-C74)*E74*E87)+((C74-F87)*E73*E87))),IF((C56&gt;C75),IF((C56-C75)&gt;C49,C49*E75*E87,IF((C56-C74)&gt;C49,((C56-C75)*E75*E87)+(C49-(C56-C75)*E74*E87),IF((C56-F87)&gt;C49,((C56-C75)*E75*E87)+((C75-C74)*E74*E87)+((C49-(C56-C74))*E73*E87),((C56-C75)*E75*E87)+((C75-C74)*E74*E87)+((C74-F87)*E73*E87)))))))</f>
         <v>262.65600000000001</v>
@@ -2618,7 +2621,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="B89" s="36" t="str">
         <f>IF(C33="No","You may not be eligible to claim a deduction on child care expense."," ")</f>
         <v>You may not be eligible to claim a deduction on child care expense.</v>
@@ -2637,94 +2640,94 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
+    <row r="90" spans="1:8">
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
       <c r="H90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="50"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
+    <row r="91" spans="1:8">
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
       <c r="H91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="H92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="H93" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="H94" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="C96" s="13"/>
       <c r="H96" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="C97" s="15"/>
       <c r="H97" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="H98" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="H99" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="H100" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="H102" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="H103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="H104" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="H105" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="3" t="s">
         <v>39</v>
       </c>
@@ -2750,55 +2753,60 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>206</v>
       </c>
@@ -2806,50 +2814,50 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B5" s="22">
         <v>200</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="50">
         <v>0.03</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="45"/>
       <c r="F7" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="F8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -2858,13 +2866,13 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="C10" s="25"/>
       <c r="F10" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2872,7 +2880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2880,12 +2888,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="F13" s="19" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="F14" s="10" t="s">
         <v>219</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="F15" t="s">
         <v>214</v>
       </c>
@@ -2908,7 +2916,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2926,8 +2934,8 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="57" t="s">
+    <row r="17" spans="1:13">
+      <c r="F17" s="55" t="s">
         <v>232</v>
       </c>
       <c r="G17">
@@ -2938,8 +2946,8 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="57" t="s">
+    <row r="18" spans="1:13">
+      <c r="F18" s="55" t="s">
         <v>233</v>
       </c>
       <c r="G18">
@@ -2950,12 +2958,12 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -2963,12 +2971,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2985,7 +2993,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3011,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3024,7 +3032,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3044,7 +3052,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15">
       <c r="B26" s="5">
         <v>200000</v>
       </c>
@@ -3059,7 +3067,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15">
       <c r="F27" s="13"/>
       <c r="G27" s="29"/>
       <c r="H27" s="5"/>
@@ -3068,13 +3076,13 @@
       <c r="K27" s="5"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15">
       <c r="F28" s="13"/>
       <c r="G28" s="29"/>
       <c r="H28" s="5"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -3083,7 +3091,7 @@
       <c r="H29" s="28"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3109,7 +3117,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3136,7 @@
       <c r="G32" s="13"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3148,7 +3156,7 @@
       <c r="J33" s="18"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3171,7 +3179,7 @@
       <c r="K34" s="13"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15">
       <c r="B35" s="5">
         <v>220000</v>
       </c>
@@ -3186,8 +3194,8 @@
       <c r="K35" s="13"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F36" s="54" t="s">
+    <row r="36" spans="1:16">
+      <c r="F36" s="52" t="s">
         <v>222</v>
       </c>
       <c r="G36" s="4"/>
@@ -3195,7 +3203,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15">
       <c r="F37" s="3">
         <v>2016</v>
       </c>
@@ -3203,7 +3211,7 @@
       <c r="J37" s="16"/>
       <c r="K37" s="31"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -3217,12 +3225,12 @@
       <c r="I38" s="31"/>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="55">
+      <c r="F39" s="53">
         <v>42401</v>
       </c>
       <c r="G39" s="4">
@@ -3235,11 +3243,11 @@
       <c r="J39" s="4"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="55">
+    <row r="40" spans="1:16">
+      <c r="F40" s="53">
         <v>42583</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="51">
         <v>2000</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -3249,7 +3257,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -3264,14 +3272,14 @@
         <f>G38-G40</f>
         <v>3500</v>
       </c>
-      <c r="H41" s="56" t="s">
+      <c r="H41" s="54" t="s">
         <v>224</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="B42" s="12">
         <f>IF(AND((B9+B16)&gt;=B31,(B9+B16)&lt;=C31),B9*D31,IF(AND((B9+B16)&gt;B32,(B9+B16)&lt;=C32),IF((B9+B16-B32)&gt;B9,B9*D32,((B9+B16-B32)*D32)+((B9-(B9+B16-B32))*D31)),IF(AND((B9+B16)&gt;B33,(B9+B16)&lt;=C33),IF((B9+B16-B33)&gt;B9,B9*D33,IF((B9+B16-B32)&gt;B9,(((B9+B16-B33)*D33)+((B9-(B9+B16-B33))*D32)),((B9+B16-B33)*D33)+((C32-B32)*D32)+((B9-(B9+B16-B32))*D31))),IF(AND((B9+B16)&gt;B34,(B9+B16)&lt;=C34),IF((B9+B16-B34)&gt;B9,B9*D34,IF((B9+B16-B33)&gt;B9,(((B9+B16-B34)*D34)+((B9-(B9+B16-B34))*D33)),IF((B9+B16-B32)&gt;B9,(((B9+B16-B34)*D34)+((C33-B33)*D33)+((B9-(B9+B16-B33))*D32)),((B9+B16-B34)*D34)+((C33-B33)*D33)+((C32-B32)*D32)+((B9-(B9+B16-B32))*D31)))),IF((B9+B16)&gt;B35,IF((B9+B16-B35)&gt;B9,B9*D35,IF((B9+B16-B34)&gt;B9,(((B9+B16-B35)*D35)+((B9-(B9+B16-B35))*D34)),IF((B9+B16-B33)&gt;B9,(((B9+B16-B35)*D35)+((C34-B34)*D34)+((B9-(B9+B16-B34))*D33)),IF((B9+B16-B32)&gt;B9,(((B9+B16-B35)*D35)+((C34-B34)*D34)+((C33-B33)*D33)+((B9-(B9+B16-B33))*D32)),((B9+B16-B35)*D35)+((C34-B34)*D34)+((C33-B33)*D33)+((C32-B32)*D32)+((B9-(B9+B16-B32))*D31))))))))))</f>
         <v>389.12</v>
@@ -3289,7 +3297,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="B43" s="12">
         <f>IF(AND((B9+B16)&gt;=E43,(B9+B16)&lt;=C32),IF((B9+B16-E43)&gt;B9,B9*D32*D43,(B9+B16-E43)*D32*D43),IF(AND(B9+B16&gt;B33,(B9+B16)&lt;=C33),IF((B9+B16-B33)&gt;B9,B9*D33*D43,IF((B9+B16-E43)&gt;B9,(((B9+B16-B33)*D33*D43)+((B9-(B9+B16-B33))*D32*D43)),((B9+B16-B33)*D33*D43)+((B33-E43)*D32*D43))),IF(AND(B9+B16&gt;B34,(B9+B16)&lt;=C34),IF((B9+B16-B34)&gt;B9,B9*D34*D43,IF((B9+B16-B33)&gt;B9,(((B9+B16-B34)*D34*D43)+((B9-(B9+B16-B34))*D33*D43)),IF((B9+B16-E43)&gt;B9,(((B9+B16-B34)*D34*D43)+(((C33-B33)*D33*D43))+((B9-(B9+B16-B33))*D32*D43)),(((B9+B16-B34)*D34*D43)+(((C33-B33)*D33*D43))+((C32-E43)*D32*D43))))),IF((B9+B16)&gt;B35,IF((B9+B16-B35)&gt;B9,B9*D35*D43,IF((B9+B16-B34)&gt;B9,(((B9+B16-B35)*D35*D43)+((B9-(B9+B16-B35))*D34*D43)),IF((B9+B16-B33)&gt;B9,(((B9+B16-B35)*D35*D43)+(((C34-B34)*D34*D43))+((B9-(B9+B16-B34))*D33*D43)),IF((B9+B16-E43)&gt;B9,(((B9+B16-B35)*D35*D43)+(((C34-B34)*D34*D43))+(((C33-B33)*D33*D43))+((B9-(B9+B16-B33))*D32*D43)),(((B9+B16-B35)*D35*D43)+(((C34-B34)*D34*D43))+(((C33-B33)*D33*D43))+((C32-E43)*D32*D43))))))))))</f>
         <v>77.824000000000012</v>
@@ -3303,12 +3311,12 @@
       <c r="E43" s="13">
         <v>73145</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="53" t="s">
         <v>226</v>
       </c>
       <c r="P43" s="15"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="B44" s="12">
         <f>IF(AND(B9+B16&gt;=E44,(B9+B16)&lt;=C33),IF((B9+B16-E44)&gt;B9,B9*D33*D44,(B9+B16-E44)*D33*D44),IF(AND((B9+B16)&gt;B34,(B9+B16)&lt;=C34),IF((B9+B16-B34)&gt;B9,B9*D34*D44,IF((B9+B16-E44)&gt;B9,(((B9+B16-B34)*D34*D44)+((B9-(B9+B16-B34))*D33*D44)),((B9+B16-B34)*D34*D44)+((C33-E44)*D33*D44))),IF((B9+B16)&gt;B35,IF((B9+B16-B35)&gt;B9,B9*D35*D44,IF((B9+B16-B34)&gt;B9,(((B9+B16-B35)*D35*D44)+((B9-(B9+B16-B35))*D34*D44)),IF((B9+B16-E44)&gt;B9,(((B9+B16-B35)*D35*D44)+(((C34-B34)*D34*D44))+((B9-(B9+B16-B34))*D33*D44)),((B9+B16-B35)*D35*D44)+((C34-B34)*D34*D44)+((C33-E44)*D33*D44)))))))</f>
         <v>140.08320000000001</v>
@@ -3327,7 +3335,7 @@
       <c r="K44" s="4"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>212</v>
       </c>
@@ -3341,7 +3349,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="E46" s="18">
         <f>E43-B32</f>
         <v>31609</v>
@@ -3350,24 +3358,24 @@
         <f>G41</f>
         <v>3500</v>
       </c>
-      <c r="H46" s="56" t="s">
+      <c r="H46" s="54" t="s">
         <v>224</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="4"/>
       <c r="P46" s="15"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="B47" s="13"/>
       <c r="G47" s="4">
         <f>G39</f>
         <v>4000</v>
       </c>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="B48" s="13"/>
       <c r="G48" s="21">
         <v>5500</v>
@@ -3376,56 +3384,56 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" s="13"/>
       <c r="G49" s="4">
         <f>SUM(G46:G48)</f>
         <v>13000</v>
       </c>
-      <c r="H49" s="56" t="s">
+      <c r="H49" s="54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" s="13"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53" s="13"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="G57" s="32"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="G59" s="25"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12">
       <c r="G60" s="25"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="G61" s="25"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12">
       <c r="G63" s="3"/>
       <c r="L63" s="27"/>
     </row>
@@ -3436,46 +3444,51 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AD186"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="C1" s="1"/>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="C2" s="11"/>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3483,7 +3496,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3491,13 +3504,13 @@
         <v>15255</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="C9">
         <f>MIN(C6,C8)</f>
         <v>15255</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>2288.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -3521,28 +3534,28 @@
         <v>770.37750000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="20">
         <f>SUM(C11:C12)</f>
         <v>3058.6275000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3558,13 +3571,13 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="C23">
         <f>MIN(C20,C22)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3576,7 +3589,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3588,28 +3601,28 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="C27" s="20">
         <f>SUM(C25:C26)</f>
         <v>200.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3617,7 +3630,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3629,7 +3642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3641,28 +3654,28 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="C38" s="20">
         <f>SUM(C36:C37)</f>
         <v>200.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -3686,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="26" t="s">
         <v>47</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="26" t="s">
         <v>48</v>
       </c>
@@ -3707,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="B51">
         <v>120</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="26" t="s">
         <v>49</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="B53">
         <v>20</v>
       </c>
@@ -3737,13 +3750,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="C54">
         <f>SUM(C49:C53)</f>
         <v>5560</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3755,7 +3768,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -3767,7 +3780,7 @@
         <v>280.78000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -3776,22 +3789,22 @@
         <v>1114.78</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -3810,12 +3823,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -3827,7 +3840,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -3849,7 +3862,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -3861,12 +3874,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>56</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -3890,7 +3903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -3921,7 +3934,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -3933,7 +3946,7 @@
         <v>191.9</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -3942,22 +3955,22 @@
         <v>761.9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -3965,7 +3978,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -3977,7 +3990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -3989,7 +4002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -4001,7 +4014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -4013,7 +4026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -4025,7 +4038,7 @@
         <v>10.100000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -4037,7 +4050,7 @@
         <v>33.480000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -4046,22 +4059,22 @@
         <v>160.57999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>66</v>
       </c>
@@ -4069,7 +4082,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -4077,7 +4090,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>58</v>
       </c>
@@ -4086,7 +4099,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -4101,22 +4114,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -4124,7 +4137,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -4139,17 +4152,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>77</v>
       </c>
@@ -4157,12 +4170,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="C125" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -4170,7 +4183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="28">
       <c r="A127" s="24" t="s">
         <v>81</v>
       </c>
@@ -4178,7 +4191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -4186,7 +4199,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -4198,25 +4211,25 @@
         <v>750</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30">
       <c r="A132" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30">
       <c r="A133" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30">
       <c r="A135" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30">
       <c r="A136" s="3"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30">
       <c r="A137" s="34" t="s">
         <v>135</v>
       </c>
@@ -4224,10 +4237,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30">
       <c r="A138" s="34"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30">
       <c r="C139" s="34" t="s">
         <v>136</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" ht="28">
       <c r="A140" s="34" t="s">
         <v>139</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30">
       <c r="A141" t="s">
         <v>84</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" ht="28">
       <c r="A143" s="24" t="s">
         <v>138</v>
       </c>
@@ -4389,7 +4402,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30">
       <c r="C144" s="25"/>
       <c r="F144" s="25"/>
       <c r="I144" s="25"/>
@@ -4401,7 +4414,7 @@
       <c r="AA144" s="25"/>
       <c r="AD144" s="25"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -4481,7 +4494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -4564,7 +4577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30">
       <c r="A150" t="s">
         <v>143</v>
       </c>
@@ -4573,22 +4586,22 @@
         <v>450</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30">
       <c r="A152" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30">
       <c r="A153" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30">
       <c r="A155" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30">
       <c r="A157" s="34" t="s">
         <v>135</v>
       </c>
@@ -4605,7 +4618,7 @@
       <c r="AA157" s="25"/>
       <c r="AD157" s="25"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30">
       <c r="C159" s="34" t="s">
         <v>136</v>
       </c>
@@ -4637,7 +4650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" ht="28">
       <c r="A160" s="34" t="s">
         <v>137</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30">
       <c r="A161" t="s">
         <v>84</v>
       </c>
@@ -4722,10 +4735,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" s="25" customFormat="1">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" ht="28">
       <c r="A163" s="24" t="s">
         <v>138</v>
       </c>
@@ -4770,7 +4783,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -4805,7 +4818,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30">
       <c r="A168" t="s">
         <v>94</v>
       </c>
@@ -4925,11 +4938,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30">
       <c r="B169" s="8"/>
       <c r="C169" s="25"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30">
       <c r="A170" t="s">
         <v>143</v>
       </c>
@@ -4938,27 +4951,27 @@
         <v>600</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30">
       <c r="A172" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30">
       <c r="A173" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30">
       <c r="A174" s="36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30">
       <c r="A176" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>87</v>
       </c>
@@ -4966,10 +4979,10 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="C179" s="25"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>88</v>
       </c>
@@ -4981,7 +4994,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -4993,7 +5006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -5007,7 +5020,7 @@
       <c r="D182" s="39"/>
       <c r="E182" s="12"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -5020,12 +5033,12 @@
       </c>
       <c r="F183" s="16"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>91</v>
       </c>
@@ -5037,58 +5050,63 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <ignoredErrors>
     <ignoredError sqref="C95:C96" formula="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5096,12 +5114,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5117,23 +5135,23 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -5155,7 +5173,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -5177,7 +5195,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5199,7 +5217,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5239,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15">
       <c r="B22" s="5">
         <v>200000</v>
       </c>
@@ -5236,21 +5254,21 @@
       <c r="K22" s="5"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
@@ -5260,7 +5278,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -5278,7 +5296,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -5300,7 +5318,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -5323,7 +5341,7 @@
       <c r="K29" s="13"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5344,7 +5362,7 @@
       <c r="K30" s="13"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15">
       <c r="B31" s="5">
         <v>220000</v>
       </c>
@@ -5358,7 +5376,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="F32" s="4"/>
       <c r="G32" s="31"/>
       <c r="H32" s="4"/>
@@ -5366,12 +5384,12 @@
       <c r="J32" s="16"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="H33" s="18"/>
       <c r="I33" s="4"/>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -5379,7 +5397,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>17</v>
@@ -5388,12 +5406,12 @@
       <c r="J35" s="4"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -5410,7 +5428,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="B38" s="12">
         <f>IF(AND((B4+B12)&gt;=B27,(B4+B12)&lt;=C27),B4*D27,IF(AND((B4+B12)&gt;B28,(B4+B12)&lt;=C28),IF((B4+B12-B28)&gt;B4,B4*D28,((B4+B12-B28)*D28)+((B4-(B4+B12-B28))*D27)),IF(AND((B4+B12)&gt;B29,(B4+B12)&lt;=C29),IF((B4+B12-B29)&gt;B4,B4*D29,IF((B4+B12-B28)&gt;B4,(((B4+B12-B29)*D29)+((B4-(B4+B12-B29))*D28)),((B4+B12-B29)*D29)+((C28-B28)*D28)+((B4-(B4+B12-B28))*D27))),IF(AND((B4+B12)&gt;B30,(B4+B12)&lt;=C30),IF((B4+B12-B30)&gt;B4,B4*D30,IF((B4+B12-B29)&gt;B4,(((B4+B12-B30)*D30)+((B4-(B4+B12-B30))*D29)),IF((B4+B12-B28)&gt;B4,(((B4+B12-B30)*D30)+((C29-B29)*D29)+((B4-(B4+B12-B29))*D28)),((B4+B12-B30)*D30)+((C29-B29)*D29)+((C28-B28)*D28)+((B4-(B4+B12-B28))*D27)))),IF((B4+B12)&gt;B31,IF((B4+B12-B31)&gt;B4,B4*D31,IF((B4+B12-B30)&gt;B4,(((B4+B12-B31)*D31)+((B4-(B4+B12-B31))*D30)),IF((B4+B12-B29)&gt;B4,(((B4+B12-B31)*D31)+((C30-B30)*D30)+((B4-(B4+B12-B30))*D29)),IF((B4+B12-B28)&gt;B4,(((B4+B12-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B4-(B4+B12-B29))*D28)),((B4+B12-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((C28-B28)*D28)+((B4-(B4+B12-B28))*D27))))))))))</f>
         <v>12.16</v>
@@ -5428,7 +5446,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="B39" s="12">
         <f>IF(AND((B4+B12)&gt;=E39,(B4+B12)&lt;=C28),IF((B4+B12-E39)&gt;B4,B4*D28*D39,(B4+B12-E39)*D28*D39),IF(AND(B4+B12&gt;B29,(B4+B12)&lt;=C29),IF((B4+B12-B29)&gt;B4,B4*D29*D39,IF((B4+B12-E39)&gt;B4,(((B4+B12-B29)*D29*D39)+((B4-(B4+B12-B29))*D28*D39)),((B4+B12-B29)*D29*D39)+((B29-E39)*D28*D39))),IF(AND(B4+B12&gt;B30,(B4+B12)&lt;=C30),IF((B4+B12-B30)&gt;B4,B4*D30*D39,IF((B4+B12-B29)&gt;B4,(((B4+B12-B30)*D30*D39)+((B4-(B4+B12-B30))*D29*D39)),IF((B4+B12-E39)&gt;B4,(((B4+B12-B30)*D30*D39)+(((C29-B29)*D29*D39))+((B4-(B4+B12-B29))*D28*D39)),(((B4+B12-B30)*D30*D39)+(((C29-B29)*D29*D39))+((C28-E39)*D28*D39))))),IF((B4+B12)&gt;B31,IF((B4+B12-B31)&gt;B4,B4*D31*D39,IF((B4+B12-B30)&gt;B4,(((B4+B12-B31)*D31*D39)+((B4-(B4+B12-B31))*D30*D39)),IF((B4+B12-B29)&gt;B4,(((B4+B12-B31)*D31*D39)+(((C30-B30)*D30*D39))+((B4-(B4+B12-B30))*D29*D39)),IF((B4+B12-E39)&gt;B4,(((B4+B12-B31)*D31*D39)+(((C30-B30)*D30*D39))+(((C29-B29)*D29*D39))+((B4-(B4+B12-B29))*D28*D39)),(((B4+B12-B31)*D31*D39)+(((C30-B30)*D30*D39))+(((C29-B29)*D29*D39))+((C28-E39)*D28*D39))))))))))</f>
         <v>2.4320000000000004</v>
@@ -5450,7 +5468,7 @@
       <c r="O39" s="18"/>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="B40" s="12">
         <f>IF(AND(B4+B12&gt;=E40,(B4+B12)&lt;=C29),IF((B4+B12-E40)&gt;B4,B4*D29*D40,(B4+B12-E40)*D29*D40),IF(AND((B4+B12)&gt;B30,(B4+B12)&lt;=C30),IF((B4+B12-B30)&gt;B4,B4*D30*D40,IF((B4+B12-E40)&gt;B4,(((B4+B12-B30)*D30*D40)+((B4-(B4+B12-B30))*D29*D40)),((B4+B12-B30)*D30*D40)+((C29-E40)*D29*D40))),IF((B4+B12)&gt;B31,IF((B4+B12-B31)&gt;B4,B4*D31*D40,IF((B4+B12-B30)&gt;B4,(((B4+B12-B31)*D31*D40)+((B4-(B4+B12-B31))*D30*D40)),IF((B4+B12-E40)&gt;B4,(((B4+B12-B31)*D31*D40)+(((C30-B30)*D30*D40))+((B4-(B4+B12-B30))*D29*D40)),((B4+B12-B31)*D31*D40)+((C30-B30)*D30*D40)+((C29-E40)*D29*D40)))))))</f>
         <v>4.3776000000000002</v>
@@ -5470,7 +5488,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -5484,7 +5502,7 @@
       <c r="J41" s="18"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="E42" s="18">
         <f>E39-B28</f>
         <v>31609</v>
@@ -5494,96 +5512,96 @@
       </c>
       <c r="P42" s="15"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="B43" s="13"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="B44" s="13"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="B45" s="13"/>
       <c r="G45" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="B46" s="13"/>
       <c r="G46" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="B47" s="13"/>
       <c r="G47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="B48" s="13"/>
       <c r="G48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" s="13"/>
       <c r="G49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" s="13"/>
       <c r="G50" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" s="13"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52" s="15"/>
       <c r="G52" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="G53" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="G54" s="25" t="s">
         <v>121</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="G55" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="G56" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="G58" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="G59" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12">
       <c r="G60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="G61" t="s">
         <v>126</v>
       </c>
@@ -5595,40 +5613,45 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="C1" s="1"/>
       <c r="D1" t="s">
         <v>0</v>
@@ -5637,7 +5660,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -5646,13 +5669,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="34" t="s">
         <v>178</v>
       </c>
@@ -5661,7 +5684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="34" t="s">
         <v>160</v>
       </c>
@@ -5676,7 +5699,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="34" t="s">
         <v>162</v>
       </c>
@@ -5688,7 +5711,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -5700,12 +5723,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="F8" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5714,7 +5737,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5722,22 +5745,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="F11" s="43" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="F12" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="F13" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5748,25 +5771,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5788,7 +5811,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -5810,7 +5833,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -5832,7 +5855,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -5854,7 +5877,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15">
       <c r="C24" s="5">
         <v>200000</v>
       </c>
@@ -5869,22 +5892,22 @@
       <c r="L24" s="5"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
@@ -5895,7 +5918,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="30"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -5913,7 +5936,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +5958,7 @@
       <c r="K30" s="18"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -5958,7 +5981,7 @@
       <c r="L31" s="13"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5979,7 +6002,7 @@
       <c r="L32" s="13"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15">
       <c r="C33" s="5">
         <v>220000</v>
       </c>
@@ -5993,7 +6016,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="G34" s="4"/>
       <c r="H34" s="31"/>
       <c r="I34" s="4"/>
@@ -6001,12 +6024,12 @@
       <c r="K34" s="16"/>
       <c r="L34" s="31"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="I35" s="18"/>
       <c r="J35" s="4"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -6015,7 +6038,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="16"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="C37" s="11"/>
       <c r="D37" t="s">
         <v>17</v>
@@ -6024,12 +6047,12 @@
       <c r="K37" s="4"/>
       <c r="L37" s="16"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="16"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -6046,7 +6069,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="16"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="B40" s="16">
         <v>0.1502</v>
       </c>
@@ -6061,7 +6084,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="16"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="C41" s="12">
         <f>IF(AND((C7+C14)&gt;=C29,(C7+C14)&lt;=D29),C7*E29,IF(AND((C7+C14)&gt;C30,(C7+C14)&lt;=D30),IF((C7+C14-C30)&gt;C7,C7*E30,((C7+C14-C30)*E30)+((C7-(C7+C14-C30))*E29)),IF(AND((C7+C14)&gt;C31,(C7+C14)&lt;=D31),IF((C7+C14-C31)&gt;C7,C7*E31,IF((C7+C14-C30)&gt;C7,(((C7+C14-C31)*E31)+((C7-(C7+C14-C31))*E30)),((C7+C14-C31)*E31)+((D30-C30)*E30)+((C7-(C7+C14-C30))*E29))),IF(AND((C7+C14)&gt;C32,(C7+C14)&lt;=D32),IF((C7+C14-C32)&gt;C7,C7*E32,IF((C7+C14-C31)&gt;C7,(((C7+C14-C32)*E32)+((C7-(C7+C14-C32))*E31)),IF((C7+C14-C30)&gt;C7,(((C7+C14-C32)*E32)+((D31-C31)*E31)+((C7-(C7+C14-C31))*E30)),((C7+C14-C32)*E32)+((D31-C31)*E31)+((D30-C30)*E30)+((C7-(C7+C14-C30))*E29)))),IF((C7+C14)&gt;C33,IF((C7+C14-C33)&gt;C7,C7*E33,IF((C7+C14-C32)&gt;C7,(((C7+C14-C33)*E33)+((C7-(C7+C14-C33))*E32)),IF((C7+C14-C31)&gt;C7,(((C7+C14-C33)*E33)+((D32-C32)*E32)+((C7-(C7+C14-C32))*E31)),IF((C7+C14-C30)&gt;C7,(((C7+C14-C33)*E33)+((D32-C32)*E32)+((D31-C31)*E31)+((C7-(C7+C14-C31))*E30)),((C7+C14-C33)*E33)+((D32-C32)*E32)+((D31-C31)*E31)+((D30-C30)*E30)+((C7-(C7+C14-C30))*E29))))))))))</f>
         <v>167.80799999999999</v>
@@ -6079,7 +6102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="B42" s="16">
         <v>0.1</v>
       </c>
@@ -6091,7 +6114,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="C43" s="12">
         <f>IF(AND((C7+C14)&gt;=F43,(C7+C14)&lt;=D30),IF((C7+C14-F43)&gt;C7,C7*E30*E43,(C7+C14-F43)*E30*E43),IF(AND(C7+C14&gt;C31,(C7+C14)&lt;=D31),IF((C7+C14-C31)&gt;C7,C7*E31*E43,IF((C7+C14-F43)&gt;C7,(((C7+C14-C31)*E31*E43)+((C7-(C7+C14-C31))*E30*E43)),((C7+C14-C31)*E31*E43)+((C31-F43)*E30*E43))),IF(AND(C7+C14&gt;C32,(C7+C14)&lt;=D32),IF((C7+C14-C32)&gt;C7,C7*E32*E43,IF((C7+C14-C31)&gt;C7,(((C7+C14-C32)*E32*E43)+((C7-(C7+C14-C32))*E31*E43)),IF((C7+C14-F43)&gt;C7,(((C7+C14-C32)*E32*E43)+(((D31-C31)*E31*E43))+((C7-(C7+C14-C31))*E30*E43)),(((C7+C14-C32)*E32*E43)+(((D31-C31)*E31*E43))+((D30-F43)*E30*E43))))),IF((C7+C14)&gt;C33,IF((C7+C14-C33)&gt;C7,C7*E33*E43,IF((C7+C14-C32)&gt;C7,(((C7+C14-C33)*E33*E43)+((C7-(C7+C14-C33))*E32*E43)),IF((C7+C14-C31)&gt;C7,(((C7+C14-C33)*E33*E43)+(((D32-C32)*E32*E43))+((C7-(C7+C14-C32))*E31*E43)),IF((C7+C14-F43)&gt;C7,(((C7+C14-C33)*E33*E43)+(((D32-C32)*E32*E43))+(((D31-C31)*E31*E43))+((C7-(C7+C14-C31))*E30*E43)),(((C7+C14-C33)*E33*E43)+(((D32-C32)*E32*E43))+(((D31-C31)*E31*E43))+((D30-F43)*E30*E43))))))))))</f>
         <v>33.561599999999999</v>
@@ -6113,7 +6136,7 @@
       <c r="P43" s="18"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="C44" s="12">
         <f>IF(AND(C7+C14&gt;=F44,(C7+C14)&lt;=D31),IF((C7+C14-F44)&gt;C7,C7*E31*E44,(C7+C14-F44)*E31*E44),IF(AND((C7+C14)&gt;C32,(C7+C14)&lt;=D32),IF((C7+C14-C32)&gt;C7,C7*E32*E44,IF((C7+C14-F44)&gt;C7,(((C7+C14-C32)*E32*E44)+((C7-(C7+C14-C32))*E31*E44)),((C7+C14-C32)*E32*E44)+((D31-F44)*E31*E44))),IF((C7+C14)&gt;C33,IF((C7+C14-C33)&gt;C7,C7*E33*E44,IF((C7+C14-C32)&gt;C7,(((C7+C14-C33)*E33*E44)+((C7-(C7+C14-C33))*E32*E44)),IF((C7+C14-F44)&gt;C7,(((C7+C14-C33)*E33*E44)+(((D32-C32)*E32*E44))+((C7-(C7+C14-C32))*E31*E44)),((C7+C14-C33)*E33*E44)+((D32-C32)*E32*E44)+((D31-F44)*E31*E44)))))))</f>
         <v>60.410879999999992</v>
@@ -6133,7 +6156,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -6147,7 +6170,7 @@
       <c r="K45" s="18"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="F46" s="18">
         <f>F43-C30</f>
         <v>31609</v>
@@ -6157,96 +6180,96 @@
       </c>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="C48" s="13"/>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:13">
       <c r="C49" s="13"/>
       <c r="H49" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13">
       <c r="C50" s="13"/>
       <c r="H50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13">
       <c r="C51" s="13"/>
       <c r="H51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:13">
       <c r="C52" s="13"/>
       <c r="H52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13">
       <c r="C53" s="13"/>
       <c r="H53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13">
       <c r="C54" s="13"/>
       <c r="H54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13">
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:13">
       <c r="C56" s="15"/>
       <c r="H56" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:13">
       <c r="H57" s="25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:13">
       <c r="H58" s="25" t="s">
         <v>121</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:13">
       <c r="H59" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:13">
       <c r="H60" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:13">
       <c r="H62" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M62" s="27"/>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:13">
       <c r="H63" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:13">
       <c r="H64" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:8">
       <c r="H65" t="s">
         <v>126</v>
       </c>
@@ -6261,6 +6284,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/iOS app (excel formula).xlsx
+++ b/iOS app (excel formula).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="240" windowWidth="24000" windowHeight="12840" activeTab="4"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="25040" windowHeight="14540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RRSP (ded'n)" sheetId="1" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1737,7 +1737,7 @@
   </sheetPr>
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
@@ -2769,7 +2769,7 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -5069,7 +5069,7 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -5629,8 +5629,8 @@
   </sheetPr>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/iOS app (excel formula).xlsx
+++ b/iOS app (excel formula).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="25040" windowHeight="14540" activeTab="5"/>
+    <workbookView xWindow="-320" yWindow="1200" windowWidth="25040" windowHeight="14540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RRSP (ded'n)" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -992,6 +992,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1266,7 +1267,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3460,8 +3461,8 @@
   </sheetPr>
   <dimension ref="A1:AD186"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3505,7 +3506,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9">
+      <c r="C9" s="18">
         <f>MIN(C6,C8)</f>
         <v>15255</v>
       </c>
@@ -3517,7 +3518,7 @@
       <c r="B11" s="8">
         <v>0.15</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="58">
         <f>$C$9*$B$11</f>
         <v>2288.25</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>54</v>
       </c>
       <c r="C66" s="22">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="D66" t="s">
         <v>55</v>
@@ -3837,7 +3838,7 @@
       </c>
       <c r="C69" s="18">
         <f>$C$66*B69</f>
-        <v>1200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3857,9 +3858,9 @@
         <v>58</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71">
+      <c r="C71" s="18">
         <f>MIN(C69,C70)</f>
-        <v>1200</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3868,7 +3869,7 @@
       </c>
       <c r="C72">
         <f>IF(C65&gt;C71,C65-C71,0)</f>
-        <v>3800</v>
+        <v>2792</v>
       </c>
       <c r="D72" t="s">
         <v>107</v>
@@ -3888,7 +3889,7 @@
       </c>
       <c r="C75" s="18">
         <f>$C$66*B75</f>
-        <v>1200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3908,9 +3909,9 @@
         <v>58</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77">
+      <c r="C77" s="18">
         <f>MIN(C75,C76)</f>
-        <v>1200</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3919,7 +3920,7 @@
       </c>
       <c r="C78">
         <f>IF(C65&gt;C77,C65-C77,0)</f>
-        <v>3800</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3931,7 +3932,7 @@
       </c>
       <c r="C80" s="12">
         <f>$C$72*$B$80</f>
-        <v>570</v>
+        <v>418.8</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3943,7 +3944,7 @@
       </c>
       <c r="C81" s="12">
         <f>$C$78*$B$81</f>
-        <v>191.9</v>
+        <v>139.78400000000002</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3952,7 +3953,7 @@
       </c>
       <c r="C82" s="20">
         <f>SUM(C80:C81)</f>
-        <v>761.9</v>
+        <v>558.58400000000006</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5629,7 +5630,7 @@
   </sheetPr>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
